--- a/biology/Zoologie/Cephalotes_auriger/Cephalotes_auriger.xlsx
+++ b/biology/Zoologie/Cephalotes_auriger/Cephalotes_auriger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes auriger est une espèce de fourmis arboricoles du genre Cephalotes, caractérisée par une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que ses cousines terrestres[1]. On la trouve principalement au Mexique et en Amérique centrale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes auriger est une espèce de fourmis arboricoles du genre Cephalotes, caractérisée par une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que ses cousines terrestres. On la trouve principalement au Mexique et en Amérique centrale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cephalotes auriger a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d)[3] dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cephalotes auriger a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d) dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin auriger, « habillé d'or », fait référence à la teinte de son abdomen[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin auriger, « habillé d'or », fait référence à la teinte de son abdomen.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Maria L. de Andrade et Cesare Baroni Urbani, « Diversity and adaptation in the ant genus Cephalotes, past and present (Hymenoptera, Formicidae) », Stuttgarter Beiträge zur Naturkunde (B), Musée d'histoire naturelle de Stuttgart, vol. 271,‎ 29 janvier 1999, p. 1-889 (ISSN 0341-0153, lire en ligne)</t>
         </is>
